--- a/Prova.xlsx
+++ b/Prova.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Go\src\ColonnaExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\go\src\ColonnaExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,8 +71,12 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -356,7 +360,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
